--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -543,40 +543,40 @@
         <v>0.402007</v>
       </c>
       <c r="I2">
-        <v>0.5925723382615233</v>
+        <v>0.1072678292304548</v>
       </c>
       <c r="J2">
-        <v>0.5925723382615232</v>
+        <v>0.1072678292304548</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1101046666666667</v>
+        <v>9.331420333333334</v>
       </c>
       <c r="N2">
-        <v>0.330314</v>
+        <v>27.994261</v>
       </c>
       <c r="O2">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="P2">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="Q2">
-        <v>0.01475428224422222</v>
+        <v>1.250432097980778</v>
       </c>
       <c r="R2">
-        <v>0.132788540198</v>
+        <v>11.253888881827</v>
       </c>
       <c r="S2">
-        <v>0.1575802024914617</v>
+        <v>0.09660657175930797</v>
       </c>
       <c r="T2">
-        <v>0.1575802024914617</v>
+        <v>0.09660657175930797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.402007</v>
       </c>
       <c r="I3">
-        <v>0.5925723382615233</v>
+        <v>0.1072678292304548</v>
       </c>
       <c r="J3">
-        <v>0.5925723382615232</v>
+        <v>0.1072678292304548</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3039383333333333</v>
+        <v>1.029792</v>
       </c>
       <c r="N3">
-        <v>0.9118149999999999</v>
+        <v>3.089376</v>
       </c>
       <c r="O3">
-        <v>0.7340743191729683</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="P3">
-        <v>0.7340743191729684</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="Q3">
-        <v>0.04072844585611111</v>
+        <v>0.137994530848</v>
       </c>
       <c r="R3">
-        <v>0.366556012705</v>
+        <v>1.241950777632</v>
       </c>
       <c r="S3">
-        <v>0.4349921357700616</v>
+        <v>0.01066125747114681</v>
       </c>
       <c r="T3">
-        <v>0.4349921357700616</v>
+        <v>0.01066125747114681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.028184</v>
+        <v>0.5849323333333333</v>
       </c>
       <c r="H4">
-        <v>0.084552</v>
+        <v>1.754797</v>
       </c>
       <c r="I4">
-        <v>0.1246325968072405</v>
+        <v>0.4682337992376111</v>
       </c>
       <c r="J4">
-        <v>0.1246325968072405</v>
+        <v>0.4682337992376112</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.1101046666666667</v>
+        <v>9.331420333333334</v>
       </c>
       <c r="N4">
-        <v>0.330314</v>
+        <v>27.994261</v>
       </c>
       <c r="O4">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="P4">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="Q4">
-        <v>0.003103189925333334</v>
+        <v>5.458249468890777</v>
       </c>
       <c r="R4">
-        <v>0.027928709328</v>
+        <v>49.124245220017</v>
       </c>
       <c r="S4">
-        <v>0.03314300815920635</v>
+        <v>0.4216964438517695</v>
       </c>
       <c r="T4">
-        <v>0.03314300815920635</v>
+        <v>0.4216964438517696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.028184</v>
+        <v>0.5849323333333333</v>
       </c>
       <c r="H5">
-        <v>0.084552</v>
+        <v>1.754797</v>
       </c>
       <c r="I5">
-        <v>0.1246325968072405</v>
+        <v>0.4682337992376111</v>
       </c>
       <c r="J5">
-        <v>0.1246325968072405</v>
+        <v>0.4682337992376112</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3039383333333333</v>
+        <v>1.029792</v>
       </c>
       <c r="N5">
-        <v>0.9118149999999999</v>
+        <v>3.089376</v>
       </c>
       <c r="O5">
-        <v>0.7340743191729683</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="P5">
-        <v>0.7340743191729684</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="Q5">
-        <v>0.008566197986666666</v>
+        <v>0.602358637408</v>
       </c>
       <c r="R5">
-        <v>0.07709578187999999</v>
+        <v>5.421227736672</v>
       </c>
       <c r="S5">
-        <v>0.09148958864803411</v>
+        <v>0.04653735538584156</v>
       </c>
       <c r="T5">
-        <v>0.09148958864803411</v>
+        <v>0.04653735538584157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.04287</v>
       </c>
       <c r="I6">
-        <v>0.06319187511976533</v>
+        <v>0.01143903424345744</v>
       </c>
       <c r="J6">
-        <v>0.06319187511976533</v>
+        <v>0.01143903424345744</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.1101046666666667</v>
+        <v>9.331420333333334</v>
       </c>
       <c r="N6">
-        <v>0.330314</v>
+        <v>27.994261</v>
       </c>
       <c r="O6">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="P6">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="Q6">
-        <v>0.001573395686666667</v>
+        <v>0.1333459965633333</v>
       </c>
       <c r="R6">
-        <v>0.01416056118</v>
+        <v>1.20011396907</v>
       </c>
       <c r="S6">
-        <v>0.01680434241396036</v>
+        <v>0.01030211844898604</v>
       </c>
       <c r="T6">
-        <v>0.01680434241396036</v>
+        <v>0.01030211844898604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.04287</v>
       </c>
       <c r="I7">
-        <v>0.06319187511976533</v>
+        <v>0.01143903424345744</v>
       </c>
       <c r="J7">
-        <v>0.06319187511976533</v>
+        <v>0.01143903424345744</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3039383333333333</v>
+        <v>1.029792</v>
       </c>
       <c r="N7">
-        <v>0.9118149999999999</v>
+        <v>3.089376</v>
       </c>
       <c r="O7">
-        <v>0.7340743191729683</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="P7">
-        <v>0.7340743191729684</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="Q7">
-        <v>0.004343278783333333</v>
+        <v>0.01471572768</v>
       </c>
       <c r="R7">
-        <v>0.03908950905</v>
+        <v>0.13244154912</v>
       </c>
       <c r="S7">
-        <v>0.04638753270580497</v>
+        <v>0.001136915794471399</v>
       </c>
       <c r="T7">
-        <v>0.04638753270580498</v>
+        <v>0.001136915794471399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.5160066666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.54802</v>
+      </c>
+      <c r="I8">
+        <v>0.4130593372884765</v>
+      </c>
+      <c r="J8">
+        <v>0.4130593372884765</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04966033333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.148981</v>
-      </c>
-      <c r="I8">
-        <v>0.219603189811471</v>
-      </c>
-      <c r="J8">
-        <v>0.2196031898114709</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.1101046666666667</v>
+        <v>9.331420333333334</v>
       </c>
       <c r="N8">
-        <v>0.330314</v>
+        <v>27.994261</v>
       </c>
       <c r="O8">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="P8">
-        <v>0.2659256808270317</v>
+        <v>0.9006108583754211</v>
       </c>
       <c r="Q8">
-        <v>0.005467834448222223</v>
+        <v>4.815075101468889</v>
       </c>
       <c r="R8">
-        <v>0.049210510034</v>
+        <v>43.33567591322</v>
       </c>
       <c r="S8">
-        <v>0.05839812776240327</v>
+        <v>0.3720057243153574</v>
       </c>
       <c r="T8">
-        <v>0.05839812776240327</v>
+        <v>0.3720057243153574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04966033333333333</v>
+        <v>0.5160066666666666</v>
       </c>
       <c r="H9">
-        <v>0.148981</v>
+        <v>1.54802</v>
       </c>
       <c r="I9">
-        <v>0.219603189811471</v>
+        <v>0.4130593372884765</v>
       </c>
       <c r="J9">
-        <v>0.2196031898114709</v>
+        <v>0.4130593372884765</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3039383333333333</v>
+        <v>1.029792</v>
       </c>
       <c r="N9">
-        <v>0.9118149999999999</v>
+        <v>3.089376</v>
       </c>
       <c r="O9">
-        <v>0.7340743191729683</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="P9">
-        <v>0.7340743191729684</v>
+        <v>0.09938914162457888</v>
       </c>
       <c r="Q9">
-        <v>0.01509367894611111</v>
+        <v>0.53137953728</v>
       </c>
       <c r="R9">
-        <v>0.135843110515</v>
+        <v>4.78241583552</v>
       </c>
       <c r="S9">
-        <v>0.1612050620490676</v>
+        <v>0.04105361297311909</v>
       </c>
       <c r="T9">
-        <v>0.1612050620490677</v>
+        <v>0.04105361297311909</v>
       </c>
     </row>
   </sheetData>
